--- a/cfs_disease_analysis.xlsx
+++ b/cfs_disease_analysis.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sleep-Staging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sleep-Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EA5E33-CA53-4240-B72E-A0E4C69A820A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA42762-9D12-465F-B1E7-F761881AB0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB4E58C4-8B2E-45BF-BA04-F45499033292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB4E58C4-8B2E-45BF-BA04-F45499033292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>activeasthma</t>
   </si>
@@ -202,6 +214,18 @@
   </si>
   <si>
     <t>Peripheral artery disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIA </t>
+  </si>
+  <si>
+    <t>high BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke </t>
+  </si>
+  <si>
+    <t>cerbrovascular</t>
   </si>
 </sst>
 </file>
@@ -336,13 +360,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,19 +385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +402,3880 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Respiratory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Disease count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$20:$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bronchitis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>emphysema</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hay fever</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pneumonia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sinus disease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A503-4371-89D6-0ADACED5C80F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="70741935"/>
+        <c:axId val="70741455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70741935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70741455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70741455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70741935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cardiovascular</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> disease count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17060236220472441"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.82555227471566051"/>
+          <c:h val="0.43747193059200934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$4:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Myocardial infarction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>angina</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high BP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cardiovascular disease</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>high cholestrol</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Congestive heart failure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>irregular heartbeat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Peripheral artery disease</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Stroke </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TIA </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ischemia pattern</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9979-42A9-9EEF-C758254E6076}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="26295119"/>
+        <c:axId val="26295599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26295119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26295599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26295599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26295119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cerebrovascular Disease count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$21:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ADHD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>anxiety</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>behavior disorder</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>depression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Multiple sclerosis</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>parkinson's disease</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tourette's syndrome</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>hypertension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$21:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-223F-4CA2-91E2-4ED8C7CA8683}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="68003071"/>
+        <c:axId val="68003551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68003071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68003551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68003551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68003071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cerebrovascular</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> disease Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$21:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>ADHD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>anxiety</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>behavior disorder</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>depression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Multiple sclerosis</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>parkinson's disease</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tourette's syndrome</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>hypertension</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>cerbrovascular</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$21:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F938-45FF-AB2C-1C53CDF5F45B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1619421391"/>
+        <c:axId val="1619422351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1619421391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1619422351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1619422351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1619421391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E1DEBD-B422-0E68-C20E-1058944D0AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ECEC96-9130-7B32-A578-DBF37A391E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>270362</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>575163</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BFDF10-38CE-7AD3-CFC8-5A474B08EF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346477</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317007</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126473</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C4A2E4-C545-0B77-1125-7FCFFBC58111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8880877" y="3518886"/>
+          <a:ext cx="580130" cy="599016"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430754</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542041</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>126171</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C296B302-19D7-73A0-A09D-FB99CC423607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9551663" y="3715978"/>
+          <a:ext cx="111287" cy="104738"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504372</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67276C9-836D-99DA-7CB2-BA9FB429BB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +4313,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -529,7 +4419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -671,7 +4561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F53B854-6147-4D01-A4D4-75EE0CDF1463}">
-  <dimension ref="C1:L29"/>
+  <dimension ref="C1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,346 +4586,334 @@
   <sheetData>
     <row r="1" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="2"/>
       <c r="L4">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5">
         <v>205</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="16">
+      <c r="J5" s="11"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6">
         <v>91</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="2"/>
       <c r="L6">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7">
         <v>171</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15">
+      <c r="J7" s="10"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15">
+      <c r="J8" s="10"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9">
         <v>83</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15">
+      <c r="J9" s="10"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15">
+      <c r="J10" s="10"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>18</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21">
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13">
         <v>219</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
       <c r="L12">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14">
-        <v>21</v>
-      </c>
+    <row r="18" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="16"/>
     </row>
-    <row r="18" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="2" t="s">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="2" t="s">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G21">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="13" t="s">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="2" t="s">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G23">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="2" t="s">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G24">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4" t="s">
+    <row r="25" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G25">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="1"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1045,5 +4923,185 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66049E2B-1F05-4A02-905A-9CD906E3ED44}">
+  <dimension ref="B4:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="105" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>